--- a/data/pca/factorExposure/factorExposure_2017-09-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02340608042769584</v>
+        <v>-0.007049114874537759</v>
       </c>
       <c r="C2">
-        <v>-3.215560149409664e-05</v>
+        <v>-0.03951729880515834</v>
       </c>
       <c r="D2">
-        <v>-0.01599250773559776</v>
+        <v>-0.02967022054069474</v>
       </c>
       <c r="E2">
-        <v>-0.008784090533074997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0325167047819909</v>
+      </c>
+      <c r="F2">
+        <v>0.02725253932624716</v>
+      </c>
+      <c r="G2">
+        <v>0.03456359806264533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01371797971695607</v>
+        <v>-0.05131055230542023</v>
       </c>
       <c r="C3">
-        <v>-0.04513688495976828</v>
+        <v>-0.0763883982763582</v>
       </c>
       <c r="D3">
-        <v>-0.00851564399148224</v>
+        <v>-0.01541930423385912</v>
       </c>
       <c r="E3">
-        <v>-0.001548929889217645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09125819084447387</v>
+      </c>
+      <c r="F3">
+        <v>0.06301682696382531</v>
+      </c>
+      <c r="G3">
+        <v>0.08097679689475348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02234983228324951</v>
+        <v>-0.05455699813012443</v>
       </c>
       <c r="C4">
-        <v>-0.01545650727348958</v>
+        <v>-0.06107303089769003</v>
       </c>
       <c r="D4">
-        <v>-0.05876120316343197</v>
+        <v>-0.02343123172228118</v>
       </c>
       <c r="E4">
-        <v>0.01788005335077679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01849154354532165</v>
+      </c>
+      <c r="F4">
+        <v>0.01355472864611026</v>
+      </c>
+      <c r="G4">
+        <v>0.05562290957004818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01508435444080493</v>
+        <v>-0.03512276357115597</v>
       </c>
       <c r="C6">
-        <v>-0.01642054628323721</v>
+        <v>-0.04977935852716251</v>
       </c>
       <c r="D6">
-        <v>-0.07944512200575787</v>
+        <v>-0.01587987543827083</v>
       </c>
       <c r="E6">
-        <v>0.009144353580815558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01664740132064137</v>
+      </c>
+      <c r="F6">
+        <v>0.01357376520179297</v>
+      </c>
+      <c r="G6">
+        <v>0.03607777366395704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.009868528020126506</v>
+        <v>-0.01417105650658623</v>
       </c>
       <c r="C7">
-        <v>-0.0004650029936335859</v>
+        <v>-0.0363418677823258</v>
       </c>
       <c r="D7">
-        <v>-0.03151505556721866</v>
+        <v>-0.01346366372280959</v>
       </c>
       <c r="E7">
-        <v>0.07266173716549877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.007794915840511116</v>
+      </c>
+      <c r="F7">
+        <v>0.009750928934342873</v>
+      </c>
+      <c r="G7">
+        <v>0.09065630803606595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001617797277136568</v>
+        <v>0.002234052301712295</v>
       </c>
       <c r="C8">
-        <v>0.004540250725921795</v>
+        <v>-0.01835314180846526</v>
       </c>
       <c r="D8">
-        <v>-0.004955343604372472</v>
+        <v>-0.004160612520060426</v>
       </c>
       <c r="E8">
-        <v>0.008320883168673274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.023087618881923</v>
+      </c>
+      <c r="F8">
+        <v>0.02455695801654052</v>
+      </c>
+      <c r="G8">
+        <v>0.027079307581426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01489180143857463</v>
+        <v>-0.0299626591730359</v>
       </c>
       <c r="C9">
-        <v>-0.01460838294242852</v>
+        <v>-0.04247636343563574</v>
       </c>
       <c r="D9">
-        <v>-0.04481995119964404</v>
+        <v>-0.0162684523260508</v>
       </c>
       <c r="E9">
-        <v>0.008188121462246326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01465830779861192</v>
+      </c>
+      <c r="F9">
+        <v>0.0194318288066525</v>
+      </c>
+      <c r="G9">
+        <v>0.04711950232550666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01311117426992738</v>
+        <v>-0.09203804171916864</v>
       </c>
       <c r="C10">
-        <v>-0.1633043732378144</v>
+        <v>0.185419367128059</v>
       </c>
       <c r="D10">
-        <v>0.1196841186600655</v>
+        <v>0.0177261080300648</v>
       </c>
       <c r="E10">
-        <v>0.01045041024465219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01191037880834956</v>
+      </c>
+      <c r="F10">
+        <v>-0.01454114649070718</v>
+      </c>
+      <c r="G10">
+        <v>0.04687215409816057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0001951546501013762</v>
+        <v>-0.0307058899260599</v>
       </c>
       <c r="C11">
-        <v>-0.005008608492061244</v>
+        <v>-0.05353675737231006</v>
       </c>
       <c r="D11">
-        <v>-0.04357088051719404</v>
+        <v>-0.002438134830737623</v>
       </c>
       <c r="E11">
-        <v>-0.007378507175052732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.007795970911836801</v>
+      </c>
+      <c r="F11">
+        <v>0.02569498015034658</v>
+      </c>
+      <c r="G11">
+        <v>0.02939599934799495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005697858179858955</v>
+        <v>-0.03092003421477917</v>
       </c>
       <c r="C12">
-        <v>-0.01338864118785349</v>
+        <v>-0.04562574555738014</v>
       </c>
       <c r="D12">
-        <v>-0.04598864437282207</v>
+        <v>-0.006359159437759422</v>
       </c>
       <c r="E12">
-        <v>0.001516768455011488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0005257146844582875</v>
+      </c>
+      <c r="F12">
+        <v>0.01011310714155181</v>
+      </c>
+      <c r="G12">
+        <v>0.03254716462661626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02128703834423747</v>
+        <v>-0.01406038921813687</v>
       </c>
       <c r="C13">
-        <v>-0.01101874784285497</v>
+        <v>-0.03103845230184377</v>
       </c>
       <c r="D13">
-        <v>-0.01330914232266346</v>
+        <v>-0.02513597609751321</v>
       </c>
       <c r="E13">
-        <v>-0.006094123142254432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02392519139693361</v>
+      </c>
+      <c r="F13">
+        <v>0.01854981675447377</v>
+      </c>
+      <c r="G13">
+        <v>0.04449317756597206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007042777275447823</v>
+        <v>-0.007301945471085801</v>
       </c>
       <c r="C14">
-        <v>-0.01177856044209678</v>
+        <v>-0.02601029239974339</v>
       </c>
       <c r="D14">
-        <v>-0.01614185960370857</v>
+        <v>-0.008790286020334326</v>
       </c>
       <c r="E14">
-        <v>0.01220175418029209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004459943061818882</v>
+      </c>
+      <c r="F14">
+        <v>0.0008539974090822059</v>
+      </c>
+      <c r="G14">
+        <v>0.04956197691345757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0008327790400599129</v>
+        <v>-0.03019702271618723</v>
       </c>
       <c r="C16">
-        <v>-0.0119632573302565</v>
+        <v>-0.0444749598431439</v>
       </c>
       <c r="D16">
-        <v>-0.04658949548170884</v>
+        <v>-0.001895131182351858</v>
       </c>
       <c r="E16">
-        <v>-3.366016267901364e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007801156230596597</v>
+      </c>
+      <c r="F16">
+        <v>0.01330204460527624</v>
+      </c>
+      <c r="G16">
+        <v>0.03065718370270354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01296404032092268</v>
+        <v>-0.02371909558744969</v>
       </c>
       <c r="C19">
-        <v>-0.0220843880367262</v>
+        <v>-0.04723155911461339</v>
       </c>
       <c r="D19">
-        <v>-0.02170032260644869</v>
+        <v>-0.01658125314360797</v>
       </c>
       <c r="E19">
-        <v>0.006173465233304523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05645717107749194</v>
+      </c>
+      <c r="F19">
+        <v>0.03302031556123911</v>
+      </c>
+      <c r="G19">
+        <v>0.05612798561223771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01006642838963219</v>
+        <v>-0.01135483945380925</v>
       </c>
       <c r="C20">
-        <v>-0.00417031671858667</v>
+        <v>-0.03357589943616384</v>
       </c>
       <c r="D20">
-        <v>-0.01116026923384847</v>
+        <v>-0.01333311446875076</v>
       </c>
       <c r="E20">
-        <v>0.0003000565828562655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02459871809406055</v>
+      </c>
+      <c r="F20">
+        <v>0.00309993097529728</v>
+      </c>
+      <c r="G20">
+        <v>0.04613078260048694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01407070598237092</v>
+        <v>-0.01350254536546968</v>
       </c>
       <c r="C21">
-        <v>-0.02809914333649949</v>
+        <v>-0.03580855305597554</v>
       </c>
       <c r="D21">
-        <v>-0.02067675979645741</v>
+        <v>-0.01671482147989145</v>
       </c>
       <c r="E21">
-        <v>0.01994158524225998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03135073953328718</v>
+      </c>
+      <c r="F21">
+        <v>0.01035541501222515</v>
+      </c>
+      <c r="G21">
+        <v>0.06810343740206402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004700884871388322</v>
+        <v>-0.02373575791565056</v>
       </c>
       <c r="C24">
-        <v>-0.003546942580650804</v>
+        <v>-0.04733252175701024</v>
       </c>
       <c r="D24">
-        <v>-0.04308472275611109</v>
+        <v>-0.007310155935086015</v>
       </c>
       <c r="E24">
-        <v>-0.002008293271519105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.003982258650343978</v>
+      </c>
+      <c r="F24">
+        <v>0.0229738886882125</v>
+      </c>
+      <c r="G24">
+        <v>0.03189651590146175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01133346505798865</v>
+        <v>-0.03863085825696182</v>
       </c>
       <c r="C25">
-        <v>-0.0202434968822118</v>
+        <v>-0.0549890262292505</v>
       </c>
       <c r="D25">
-        <v>-0.04350234551298508</v>
+        <v>-0.01147209556332137</v>
       </c>
       <c r="E25">
-        <v>-0.001034255165980896</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.003040320114066378</v>
+      </c>
+      <c r="F25">
+        <v>0.01911378992680304</v>
+      </c>
+      <c r="G25">
+        <v>0.03877375537573216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02239638197994274</v>
+        <v>-0.01146878718563254</v>
       </c>
       <c r="C26">
-        <v>-0.007886333883693242</v>
+        <v>-0.00835803044096003</v>
       </c>
       <c r="D26">
-        <v>0.007793890980928135</v>
+        <v>-0.02357121381373651</v>
       </c>
       <c r="E26">
-        <v>0.009718933056987339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003744123102227683</v>
+      </c>
+      <c r="F26">
+        <v>0.002831247575737259</v>
+      </c>
+      <c r="G26">
+        <v>0.03618196864822546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03259020573606048</v>
+        <v>-0.1176263840467852</v>
       </c>
       <c r="C28">
-        <v>-0.2401135199174319</v>
+        <v>0.2283654925778536</v>
       </c>
       <c r="D28">
-        <v>0.1673513567671304</v>
+        <v>0.008699001456448007</v>
       </c>
       <c r="E28">
-        <v>0.01796691097399796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.001600929916815044</v>
+      </c>
+      <c r="F28">
+        <v>-0.01209997603824136</v>
+      </c>
+      <c r="G28">
+        <v>0.06302031995654692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007280435451970629</v>
+        <v>-0.01077358189187673</v>
       </c>
       <c r="C29">
-        <v>-0.01662695174607122</v>
+        <v>-0.01981226528727139</v>
       </c>
       <c r="D29">
-        <v>-0.01272509980101829</v>
+        <v>-0.007525661898389609</v>
       </c>
       <c r="E29">
-        <v>0.007383686078025824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.006835823904045743</v>
+      </c>
+      <c r="F29">
+        <v>-0.008190726193236568</v>
+      </c>
+      <c r="G29">
+        <v>0.04034556210361887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02295840920289049</v>
+        <v>-0.0424354430358042</v>
       </c>
       <c r="C30">
-        <v>0.0006100097511542289</v>
+        <v>-0.06500281992524108</v>
       </c>
       <c r="D30">
-        <v>-0.06649888721955914</v>
+        <v>-0.02800932534074805</v>
       </c>
       <c r="E30">
-        <v>-0.05605433445205003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04289734797714984</v>
+      </c>
+      <c r="F30">
+        <v>0.05480813035241642</v>
+      </c>
+      <c r="G30">
+        <v>0.01777557667793459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007799603046338468</v>
+        <v>-0.04898760142764358</v>
       </c>
       <c r="C31">
-        <v>-0.04248070294491389</v>
+        <v>-0.03294469168421638</v>
       </c>
       <c r="D31">
-        <v>-0.04393301929325731</v>
+        <v>-0.003655382640287115</v>
       </c>
       <c r="E31">
-        <v>0.009285043098138783</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.002576380446495775</v>
+      </c>
+      <c r="F31">
+        <v>-0.02732201751040018</v>
+      </c>
+      <c r="G31">
+        <v>0.03975313743815232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006816696768053311</v>
+        <v>0.001575059099965334</v>
       </c>
       <c r="C32">
-        <v>-0.01891885973995863</v>
+        <v>-0.03128596476533319</v>
       </c>
       <c r="D32">
-        <v>0.0009636012148973109</v>
+        <v>0.003980950187403495</v>
       </c>
       <c r="E32">
-        <v>0.02967284190436537</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01287966443618764</v>
+      </c>
+      <c r="F32">
+        <v>0.05203860650764273</v>
+      </c>
+      <c r="G32">
+        <v>0.05912830255643831</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01219839346732936</v>
+        <v>-0.02626378657275816</v>
       </c>
       <c r="C33">
-        <v>-0.02050061676273181</v>
+        <v>-0.04658387697492851</v>
       </c>
       <c r="D33">
-        <v>-0.02292452454178486</v>
+        <v>-0.01479060695690491</v>
       </c>
       <c r="E33">
-        <v>-0.02258170957680544</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02889161553269645</v>
+      </c>
+      <c r="F33">
+        <v>0.03194459008106587</v>
+      </c>
+      <c r="G33">
+        <v>0.04673823301355847</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004787011980234317</v>
+        <v>-0.03870572826122563</v>
       </c>
       <c r="C34">
-        <v>-0.01807336769018917</v>
+        <v>-0.0564634515672993</v>
       </c>
       <c r="D34">
-        <v>-0.04825488395337345</v>
+        <v>0.004402578121525226</v>
       </c>
       <c r="E34">
-        <v>0.007305895574418179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.002907695572399184</v>
+      </c>
+      <c r="F34">
+        <v>0.02869951633325539</v>
+      </c>
+      <c r="G34">
+        <v>0.04374011406106328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01189787472053361</v>
+        <v>-0.01107890753345567</v>
       </c>
       <c r="C36">
-        <v>-0.01783170005663537</v>
+        <v>-0.007350795511941457</v>
       </c>
       <c r="D36">
-        <v>-0.001450907618658011</v>
+        <v>-0.01152928781835034</v>
       </c>
       <c r="E36">
-        <v>0.003944505955870216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0009565862985969857</v>
+      </c>
+      <c r="F36">
+        <v>-0.002208421625785078</v>
+      </c>
+      <c r="G36">
+        <v>0.03187811577799199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.005923059332260415</v>
+        <v>-0.03153739701856498</v>
       </c>
       <c r="C38">
-        <v>-0.02769985115912748</v>
+        <v>-0.02762874611686422</v>
       </c>
       <c r="D38">
-        <v>-0.02085276713637089</v>
+        <v>0.007580275039452663</v>
       </c>
       <c r="E38">
-        <v>0.005932248046713252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.005929615868888336</v>
+      </c>
+      <c r="F38">
+        <v>-0.002949811691908003</v>
+      </c>
+      <c r="G38">
+        <v>0.0416515176915322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005554609590804262</v>
+        <v>-0.03061786815839306</v>
       </c>
       <c r="C39">
-        <v>0.01946269031336317</v>
+        <v>-0.08050826136972153</v>
       </c>
       <c r="D39">
-        <v>-0.09024984009854956</v>
+        <v>-0.01241727079073267</v>
       </c>
       <c r="E39">
-        <v>-0.005469836972658446</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02414993293001984</v>
+      </c>
+      <c r="F39">
+        <v>0.0428769919942423</v>
+      </c>
+      <c r="G39">
+        <v>0.03251237757448425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01005639122731371</v>
+        <v>-0.01843931373220767</v>
       </c>
       <c r="C40">
-        <v>-0.009721528970378018</v>
+        <v>-0.03190034793344103</v>
       </c>
       <c r="D40">
-        <v>-0.03765160429845892</v>
+        <v>-0.01338903907750194</v>
       </c>
       <c r="E40">
-        <v>-0.003124989634730097</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0192772166578968</v>
+      </c>
+      <c r="F40">
+        <v>0.02144967450641734</v>
+      </c>
+      <c r="G40">
+        <v>0.03287251867704643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005232622101966727</v>
+        <v>-0.01086198471857252</v>
       </c>
       <c r="C41">
-        <v>-0.02033828475777294</v>
+        <v>0.000493727888299064</v>
       </c>
       <c r="D41">
-        <v>0.01081995311423342</v>
+        <v>-0.004003747669106991</v>
       </c>
       <c r="E41">
-        <v>0.003506860019648691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0006292724596737155</v>
+      </c>
+      <c r="F41">
+        <v>0.004146533073495845</v>
+      </c>
+      <c r="G41">
+        <v>0.02288888370641911</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09348005743365401</v>
+        <v>-0.01516971225481856</v>
       </c>
       <c r="C42">
-        <v>0.01066847676865954</v>
+        <v>-0.04374899461249686</v>
       </c>
       <c r="D42">
-        <v>-0.2748066006030503</v>
+        <v>-0.09527587713596458</v>
       </c>
       <c r="E42">
-        <v>-0.2741853686224229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03851535799597298</v>
+      </c>
+      <c r="F42">
+        <v>-0.05041746636219737</v>
+      </c>
+      <c r="G42">
+        <v>-0.1576330022351753</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.00628863725610253</v>
+        <v>-0.02802720840861875</v>
       </c>
       <c r="C43">
-        <v>-0.02164098010990437</v>
+        <v>-0.009977799369770758</v>
       </c>
       <c r="D43">
-        <v>0.01659562308698639</v>
+        <v>-0.004726682771788809</v>
       </c>
       <c r="E43">
-        <v>-0.001616476365535158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.008918083085873369</v>
+      </c>
+      <c r="F43">
+        <v>0.003696908756188469</v>
+      </c>
+      <c r="G43">
+        <v>0.03274810693260734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002896302179180783</v>
+        <v>-0.01272980840801066</v>
       </c>
       <c r="C44">
-        <v>-0.001087067327279063</v>
+        <v>-0.04922119880441279</v>
       </c>
       <c r="D44">
-        <v>-0.02454347680492478</v>
+        <v>-0.00666076327912311</v>
       </c>
       <c r="E44">
-        <v>0.004534636593126645</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01736105043542834</v>
+      </c>
+      <c r="F44">
+        <v>0.009115822511089233</v>
+      </c>
+      <c r="G44">
+        <v>0.04959005171450006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01050148455970843</v>
+        <v>-0.004585973556094569</v>
       </c>
       <c r="C46">
-        <v>-0.01633867057851924</v>
+        <v>-0.01677999291854494</v>
       </c>
       <c r="D46">
-        <v>-0.01130019790666475</v>
+        <v>-0.01166206362177036</v>
       </c>
       <c r="E46">
-        <v>0.002703054574913104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.004139995634649749</v>
+      </c>
+      <c r="F46">
+        <v>-0.01121349262430815</v>
+      </c>
+      <c r="G46">
+        <v>0.03685938326265316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001808579632552658</v>
+        <v>-0.07502048195614491</v>
       </c>
       <c r="C47">
-        <v>-0.0541947307484438</v>
+        <v>-0.06497091618169425</v>
       </c>
       <c r="D47">
-        <v>-0.05715477057734473</v>
+        <v>0.004814326007589568</v>
       </c>
       <c r="E47">
-        <v>-0.0009608550262021153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007596425456799812</v>
+      </c>
+      <c r="F47">
+        <v>-0.04828581394062929</v>
+      </c>
+      <c r="G47">
+        <v>0.03785761952582865</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002835222614182825</v>
+        <v>-0.01996910999131492</v>
       </c>
       <c r="C48">
-        <v>-0.02624266624680664</v>
+        <v>-0.009531697646610496</v>
       </c>
       <c r="D48">
-        <v>-0.01182696073358022</v>
+        <v>-0.0009118372910503231</v>
       </c>
       <c r="E48">
-        <v>0.002767558641475405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002889927846083331</v>
+      </c>
+      <c r="F48">
+        <v>-0.01086388193876444</v>
+      </c>
+      <c r="G48">
+        <v>0.03842697290471371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002801395129306922</v>
+        <v>-0.07906863401157838</v>
       </c>
       <c r="C50">
-        <v>-0.04436486379087122</v>
+        <v>-0.06680326465075155</v>
       </c>
       <c r="D50">
-        <v>-0.06177293876666382</v>
+        <v>0.003124585789704451</v>
       </c>
       <c r="E50">
-        <v>0.02631254581408429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01027507283913051</v>
+      </c>
+      <c r="F50">
+        <v>-0.04818551692914792</v>
+      </c>
+      <c r="G50">
+        <v>0.06268548251763094</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007088240744575662</v>
+        <v>-0.01010227785655093</v>
       </c>
       <c r="C51">
-        <v>-0.01890399183138458</v>
+        <v>-0.02693795413280814</v>
       </c>
       <c r="D51">
-        <v>0.01268205344275023</v>
+        <v>-0.009443918918517055</v>
       </c>
       <c r="E51">
-        <v>0.01015123640618145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01270788080960525</v>
+      </c>
+      <c r="F51">
+        <v>0.02587788319292273</v>
+      </c>
+      <c r="G51">
+        <v>0.06280465226738222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.004993951449925784</v>
+        <v>-0.08262061040163839</v>
       </c>
       <c r="C53">
-        <v>-0.06889638744689613</v>
+        <v>-0.08136555761934021</v>
       </c>
       <c r="D53">
-        <v>-0.117092272899045</v>
+        <v>0.004100461943409081</v>
       </c>
       <c r="E53">
-        <v>0.008352216385663415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03073918451560012</v>
+      </c>
+      <c r="F53">
+        <v>-0.05373180048696065</v>
+      </c>
+      <c r="G53">
+        <v>0.04132174866576795</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0006589003332212771</v>
+        <v>-0.03045594116263681</v>
       </c>
       <c r="C54">
-        <v>-0.03483948843910937</v>
+        <v>-0.010110945626936</v>
       </c>
       <c r="D54">
-        <v>0.008195149839148088</v>
+        <v>0.002917749338157646</v>
       </c>
       <c r="E54">
-        <v>0.01140298149903432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001802360239003977</v>
+      </c>
+      <c r="F54">
+        <v>-0.0004530825592482987</v>
+      </c>
+      <c r="G54">
+        <v>0.04193843956623299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.002192401070577289</v>
+        <v>-0.07004890688754689</v>
       </c>
       <c r="C55">
-        <v>-0.04930512097698427</v>
+        <v>-0.07236394632396731</v>
       </c>
       <c r="D55">
-        <v>-0.1013094739452964</v>
+        <v>0.004462516958642993</v>
       </c>
       <c r="E55">
-        <v>-0.004139321260975585</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02247191444560718</v>
+      </c>
+      <c r="F55">
+        <v>-0.05129909370970358</v>
+      </c>
+      <c r="G55">
+        <v>0.02228086444375792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.002391588925463034</v>
+        <v>-0.1411729519794798</v>
       </c>
       <c r="C56">
-        <v>-0.09257115300170005</v>
+        <v>-0.105960473632086</v>
       </c>
       <c r="D56">
-        <v>-0.149887812605816</v>
+        <v>0.01291551217345051</v>
       </c>
       <c r="E56">
-        <v>-0.00208766238914792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03709613142908692</v>
+      </c>
+      <c r="F56">
+        <v>-0.07993417440630519</v>
+      </c>
+      <c r="G56">
+        <v>0.01298152031704003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02369097735008112</v>
+        <v>-0.009643207237095023</v>
       </c>
       <c r="C57">
-        <v>-0.02169946353041259</v>
+        <v>-0.01037163738642172</v>
       </c>
       <c r="D57">
-        <v>-0.04174361648492074</v>
+        <v>-0.02375795558838343</v>
       </c>
       <c r="E57">
-        <v>-0.002334830464154022</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02714903227660057</v>
+      </c>
+      <c r="F57">
+        <v>0.01565779151034873</v>
+      </c>
+      <c r="G57">
+        <v>0.0238107771854277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01070666172313289</v>
+        <v>-0.08102909131051093</v>
       </c>
       <c r="C58">
-        <v>-0.0855929373826789</v>
+        <v>-0.03713244221554904</v>
       </c>
       <c r="D58">
-        <v>-0.09319270392352602</v>
+        <v>-0.01850147544993629</v>
       </c>
       <c r="E58">
-        <v>-0.2054392443104082</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9472815222365136</v>
+      </c>
+      <c r="F58">
+        <v>-0.2143491629936949</v>
+      </c>
+      <c r="G58">
+        <v>-0.00781546826796053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02876994078316764</v>
+        <v>-0.1589892363776597</v>
       </c>
       <c r="C59">
-        <v>-0.251227139388619</v>
+        <v>0.2118155819083602</v>
       </c>
       <c r="D59">
-        <v>0.1676516313910659</v>
+        <v>0.01583059461527744</v>
       </c>
       <c r="E59">
-        <v>-0.005850694276418833</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.006738827817271644</v>
+      </c>
+      <c r="F59">
+        <v>0.004535914332468288</v>
+      </c>
+      <c r="G59">
+        <v>0.02124245148945467</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03270919143592362</v>
+        <v>-0.2872903294155543</v>
       </c>
       <c r="C60">
-        <v>-0.1528693339078065</v>
+        <v>-0.09932525090310555</v>
       </c>
       <c r="D60">
-        <v>-0.08126141577385072</v>
+        <v>-0.01162052981284239</v>
       </c>
       <c r="E60">
-        <v>-0.03794177048589466</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.009688423182466857</v>
+      </c>
+      <c r="F60">
+        <v>0.3533828080781307</v>
+      </c>
+      <c r="G60">
+        <v>-0.104600947815497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002990003081651937</v>
+        <v>-0.03272264218541401</v>
       </c>
       <c r="C61">
-        <v>-0.007221332971715702</v>
+        <v>-0.06521296068592368</v>
       </c>
       <c r="D61">
-        <v>-0.06528451846367739</v>
+        <v>-0.005608387356891191</v>
       </c>
       <c r="E61">
-        <v>-0.002113726948453143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01120132517310344</v>
+      </c>
+      <c r="F61">
+        <v>0.02519455163283753</v>
+      </c>
+      <c r="G61">
+        <v>0.0310300562689683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007142397772261796</v>
+        <v>-0.01237158007604733</v>
       </c>
       <c r="C63">
-        <v>-0.007467076300351737</v>
+        <v>-0.02772049280462963</v>
       </c>
       <c r="D63">
-        <v>-0.007097543276599271</v>
+        <v>-0.008148157756928559</v>
       </c>
       <c r="E63">
-        <v>0.009347813662366181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.003790164410617806</v>
+      </c>
+      <c r="F63">
+        <v>-0.01211725394644141</v>
+      </c>
+      <c r="G63">
+        <v>0.04478353604000149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.007108522388972928</v>
+        <v>-0.05066567798912001</v>
       </c>
       <c r="C64">
-        <v>-0.02680353279313327</v>
+        <v>-0.04115865959926786</v>
       </c>
       <c r="D64">
-        <v>-0.06198019899401203</v>
+        <v>-0.00562258740974709</v>
       </c>
       <c r="E64">
-        <v>-0.008898850078597465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.004171166440052157</v>
+      </c>
+      <c r="F64">
+        <v>0.008699992803813393</v>
+      </c>
+      <c r="G64">
+        <v>0.0290772301048292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01759023279650083</v>
+        <v>-0.0811868932585368</v>
       </c>
       <c r="C65">
-        <v>-0.02146788073514611</v>
+        <v>-0.06068669849750197</v>
       </c>
       <c r="D65">
-        <v>-0.09243802410775098</v>
+        <v>-0.01539566031935444</v>
       </c>
       <c r="E65">
-        <v>0.007087075852560728</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01647144326529276</v>
+      </c>
+      <c r="F65">
+        <v>0.03352002248527412</v>
+      </c>
+      <c r="G65">
+        <v>0.01895124738318734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00537382849949011</v>
+        <v>-0.04913213314778388</v>
       </c>
       <c r="C66">
-        <v>0.0104473544297933</v>
+        <v>-0.1139159638952911</v>
       </c>
       <c r="D66">
-        <v>-0.118178525054778</v>
+        <v>-0.01240693527231064</v>
       </c>
       <c r="E66">
-        <v>-0.01946046577454843</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02977695256938893</v>
+      </c>
+      <c r="F66">
+        <v>0.05196971330960468</v>
+      </c>
+      <c r="G66">
+        <v>0.02730584112710266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0003636597167809344</v>
+        <v>-0.05387161878597067</v>
       </c>
       <c r="C67">
-        <v>-0.04605464317301035</v>
+        <v>-0.03183536421209041</v>
       </c>
       <c r="D67">
-        <v>-0.02526167382372432</v>
+        <v>0.005599668511338318</v>
       </c>
       <c r="E67">
-        <v>0.004180272645041535</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0001142076087240416</v>
+      </c>
+      <c r="F67">
+        <v>-0.005374046828277379</v>
+      </c>
+      <c r="G67">
+        <v>0.03944343733214116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04706911233075572</v>
+        <v>-0.1389074802947815</v>
       </c>
       <c r="C68">
-        <v>-0.2294581823135737</v>
+        <v>0.2692590242596904</v>
       </c>
       <c r="D68">
-        <v>0.156421281354671</v>
+        <v>-0.002463224563320366</v>
       </c>
       <c r="E68">
-        <v>-0.01189592290934132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.007262837821904396</v>
+      </c>
+      <c r="F68">
+        <v>-0.03751535191233853</v>
+      </c>
+      <c r="G68">
+        <v>0.02402387922451609</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003149325053544768</v>
+        <v>-0.07645792425938081</v>
       </c>
       <c r="C69">
-        <v>-0.03849671730201353</v>
+        <v>-0.06582815405974111</v>
       </c>
       <c r="D69">
-        <v>-0.05954365380207604</v>
+        <v>0.00878852180330684</v>
       </c>
       <c r="E69">
-        <v>0.004345279569801548</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.025332427304748</v>
+      </c>
+      <c r="F69">
+        <v>-0.03056310409444416</v>
+      </c>
+      <c r="G69">
+        <v>0.039487285914675</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03343228052333773</v>
+        <v>-0.1354799635283424</v>
       </c>
       <c r="C71">
-        <v>-0.1996100793295597</v>
+        <v>0.2341804464561519</v>
       </c>
       <c r="D71">
-        <v>0.1455495120305151</v>
+        <v>0.006386192762764537</v>
       </c>
       <c r="E71">
-        <v>0.002508051439694253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02586356728691723</v>
+      </c>
+      <c r="F71">
+        <v>-0.006211141885399948</v>
+      </c>
+      <c r="G71">
+        <v>0.03727500814258641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001856469221544354</v>
+        <v>-0.08407637518047868</v>
       </c>
       <c r="C72">
-        <v>-0.04553530724306468</v>
+        <v>-0.0734971901272678</v>
       </c>
       <c r="D72">
-        <v>-0.1311281566763484</v>
+        <v>0.008023311155406929</v>
       </c>
       <c r="E72">
-        <v>-0.01871872178670387</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.004497852887468248</v>
+      </c>
+      <c r="F72">
+        <v>0.04174707180266791</v>
+      </c>
+      <c r="G72">
+        <v>0.01268811991228683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04704596012891965</v>
+        <v>-0.398591325272504</v>
       </c>
       <c r="C73">
-        <v>-0.1856514395750306</v>
+        <v>-0.1118396430155686</v>
       </c>
       <c r="D73">
-        <v>-0.1600492679089791</v>
+        <v>-0.01769843005543252</v>
       </c>
       <c r="E73">
-        <v>-0.09607397107974407</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.04804032479341836</v>
+      </c>
+      <c r="F73">
+        <v>0.5419515148734774</v>
+      </c>
+      <c r="G73">
+        <v>-0.1870126883418939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0005108095674380192</v>
+        <v>-0.1115455860447852</v>
       </c>
       <c r="C74">
-        <v>-0.08491184891847779</v>
+        <v>-0.119127997520571</v>
       </c>
       <c r="D74">
-        <v>-0.1532318755158602</v>
+        <v>0.009513938398415777</v>
       </c>
       <c r="E74">
-        <v>-0.009316008799612138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01429558668403763</v>
+      </c>
+      <c r="F74">
+        <v>-0.06862847169831904</v>
+      </c>
+      <c r="G74">
+        <v>0.0486216739667068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.005504010522148409</v>
+        <v>-0.2498943681168236</v>
       </c>
       <c r="C75">
-        <v>-0.1986377432565226</v>
+        <v>-0.1532823914648289</v>
       </c>
       <c r="D75">
-        <v>-0.2787306878662052</v>
+        <v>0.02990728858810477</v>
       </c>
       <c r="E75">
-        <v>-0.02951262845785477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05429227908849579</v>
+      </c>
+      <c r="F75">
+        <v>-0.1883046245399827</v>
+      </c>
+      <c r="G75">
+        <v>-0.02257199242543939</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00304420936703811</v>
+        <v>-0.1261421112845457</v>
       </c>
       <c r="C76">
-        <v>-0.1351365475328701</v>
+        <v>-0.1224463088735765</v>
       </c>
       <c r="D76">
-        <v>-0.2293757378935869</v>
+        <v>0.02056350613414773</v>
       </c>
       <c r="E76">
-        <v>0.00395279908259721</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04907943783328479</v>
+      </c>
+      <c r="F76">
+        <v>-0.1185716895957931</v>
+      </c>
+      <c r="G76">
+        <v>0.02648110523802018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01173568582325388</v>
+        <v>-0.06598663955256873</v>
       </c>
       <c r="C77">
-        <v>-0.01697119436646545</v>
+        <v>-0.0610419960629452</v>
       </c>
       <c r="D77">
-        <v>-0.0539362845466055</v>
+        <v>-0.01261663872605472</v>
       </c>
       <c r="E77">
-        <v>-0.008139286293421267</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04747684334409177</v>
+      </c>
+      <c r="F77">
+        <v>0.01674040731943053</v>
+      </c>
+      <c r="G77">
+        <v>0.05035081573098579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003954633249661698</v>
+        <v>-0.04000432781591581</v>
       </c>
       <c r="C78">
-        <v>-0.01044070482387893</v>
+        <v>-0.05122366326915689</v>
       </c>
       <c r="D78">
-        <v>-0.06621488597302602</v>
+        <v>-0.005968120658410513</v>
       </c>
       <c r="E78">
-        <v>0.0005663343107916738</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02164373208804971</v>
+      </c>
+      <c r="F78">
+        <v>0.0448718226124192</v>
+      </c>
+      <c r="G78">
+        <v>0.04007557006466759</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0160452955153312</v>
+        <v>-0.05400023287995633</v>
       </c>
       <c r="C80">
-        <v>-0.1209023891997316</v>
+        <v>-0.06207791391972449</v>
       </c>
       <c r="D80">
-        <v>-0.1668846547281407</v>
+        <v>-0.01337974552574384</v>
       </c>
       <c r="E80">
-        <v>0.9118558122178825</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03112068057284924</v>
+      </c>
+      <c r="F80">
+        <v>0.07053421692382808</v>
+      </c>
+      <c r="G80">
+        <v>0.8776921971968166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.004286879922614845</v>
+        <v>-0.1459950601290656</v>
       </c>
       <c r="C81">
-        <v>-0.1235553439634909</v>
+        <v>-0.09609731902984975</v>
       </c>
       <c r="D81">
-        <v>-0.1725377215177377</v>
+        <v>0.01514115033789736</v>
       </c>
       <c r="E81">
-        <v>-0.008766966976871512</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03015104746353127</v>
+      </c>
+      <c r="F81">
+        <v>-0.1225283718519805</v>
+      </c>
+      <c r="G81">
+        <v>0.02430422470427998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.09440291347243783</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05274007776502201</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.004639446353110451</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07175602968252037</v>
+      </c>
+      <c r="F82">
+        <v>-0.007005812293582558</v>
+      </c>
+      <c r="G82">
+        <v>0.009367941310626574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006877193846802763</v>
+        <v>-0.0316522178094068</v>
       </c>
       <c r="C83">
-        <v>-0.02700103717512336</v>
+        <v>-0.0202131339625031</v>
       </c>
       <c r="D83">
-        <v>-0.0233771194904385</v>
+        <v>-0.005211124447392385</v>
       </c>
       <c r="E83">
-        <v>-0.003808038285562402</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0255098385711405</v>
+      </c>
+      <c r="F83">
+        <v>0.02228156163798352</v>
+      </c>
+      <c r="G83">
+        <v>0.02829219092625766</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01201677196519698</v>
+        <v>-0.2241397781897136</v>
       </c>
       <c r="C85">
-        <v>-0.1497321757989113</v>
+        <v>-0.151982457995988</v>
       </c>
       <c r="D85">
-        <v>-0.2636637647202398</v>
+        <v>0.01836828189812893</v>
       </c>
       <c r="E85">
-        <v>-0.02994552521763761</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09553986714979185</v>
+      </c>
+      <c r="F85">
+        <v>-0.1694275773678592</v>
+      </c>
+      <c r="G85">
+        <v>-0.04567709198386903</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006769279883448723</v>
+        <v>-0.00953842787067152</v>
       </c>
       <c r="C86">
-        <v>-0.025721937865005</v>
+        <v>-0.01440040919606097</v>
       </c>
       <c r="D86">
-        <v>-0.007784174583227334</v>
+        <v>-0.01012100308124233</v>
       </c>
       <c r="E86">
-        <v>-0.02146747480115045</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03373891877985138</v>
+      </c>
+      <c r="F86">
+        <v>0.03858778731495151</v>
+      </c>
+      <c r="G86">
+        <v>0.06581061176380865</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007411486726944966</v>
+        <v>-0.01860461110980944</v>
       </c>
       <c r="C87">
-        <v>-0.01213746238992837</v>
+        <v>-0.02570255876558122</v>
       </c>
       <c r="D87">
-        <v>-0.04105137776620971</v>
+        <v>-0.01122090592264076</v>
       </c>
       <c r="E87">
-        <v>-0.001279114010389432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08383716407436907</v>
+      </c>
+      <c r="F87">
+        <v>0.03202756581094649</v>
+      </c>
+      <c r="G87">
+        <v>0.05487165766194892</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02666522114933508</v>
+        <v>-0.08872123000534779</v>
       </c>
       <c r="C88">
-        <v>-0.03832648022158882</v>
+        <v>-0.06325173868551449</v>
       </c>
       <c r="D88">
-        <v>-0.03275331283314085</v>
+        <v>-0.02295866967288064</v>
       </c>
       <c r="E88">
-        <v>-0.003828356691195269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01118237879283374</v>
+      </c>
+      <c r="F88">
+        <v>-0.007853181887374997</v>
+      </c>
+      <c r="G88">
+        <v>0.03259464758154466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06317795925528741</v>
+        <v>-0.2256048167723308</v>
       </c>
       <c r="C89">
-        <v>-0.3625670728174677</v>
+        <v>0.3647366478864147</v>
       </c>
       <c r="D89">
-        <v>0.2374339005312067</v>
+        <v>0.00564856380405201</v>
       </c>
       <c r="E89">
-        <v>-0.0208645019642338</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01998674436094036</v>
+      </c>
+      <c r="F89">
+        <v>-0.02332247654892904</v>
+      </c>
+      <c r="G89">
+        <v>0.0380512574430476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04843534302264987</v>
+        <v>-0.197975491795237</v>
       </c>
       <c r="C90">
-        <v>-0.2827546715028427</v>
+        <v>0.3277986709404713</v>
       </c>
       <c r="D90">
-        <v>0.2204011485135007</v>
+        <v>0.009572720156185164</v>
       </c>
       <c r="E90">
-        <v>-0.0201035021292937</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02055294970502774</v>
+      </c>
+      <c r="F90">
+        <v>-0.0444660554348179</v>
+      </c>
+      <c r="G90">
+        <v>0.008871761939336278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.001214118501770026</v>
+        <v>-0.2000661973433062</v>
       </c>
       <c r="C91">
-        <v>-0.160134828240712</v>
+        <v>-0.1398930821090205</v>
       </c>
       <c r="D91">
-        <v>-0.2408300127268837</v>
+        <v>0.02383667987520955</v>
       </c>
       <c r="E91">
-        <v>-0.01359010820427954</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06953365185012463</v>
+      </c>
+      <c r="F91">
+        <v>-0.1609354243828298</v>
+      </c>
+      <c r="G91">
+        <v>0.01540097049468225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.0141441936924853</v>
+        <v>-0.2052405310882506</v>
       </c>
       <c r="C92">
-        <v>-0.3217724606967816</v>
+        <v>0.2591385754194431</v>
       </c>
       <c r="D92">
-        <v>0.08773794380342405</v>
+        <v>0.04733012659785286</v>
       </c>
       <c r="E92">
-        <v>-0.01612829091422045</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0003573398411428703</v>
+      </c>
+      <c r="F92">
+        <v>-0.09261369946446757</v>
+      </c>
+      <c r="G92">
+        <v>0.07522115904990215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04601674381181142</v>
+        <v>-0.2284376177694129</v>
       </c>
       <c r="C93">
-        <v>-0.3187571698103967</v>
+        <v>0.32943697459332</v>
       </c>
       <c r="D93">
-        <v>0.2158836344424838</v>
+        <v>0.01727856880404311</v>
       </c>
       <c r="E93">
-        <v>-0.04604324810030974</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.003883406669535657</v>
+      </c>
+      <c r="F93">
+        <v>-0.03451680048532022</v>
+      </c>
+      <c r="G93">
+        <v>-0.0008267599040384905</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02269832202483369</v>
+        <v>-0.3050898874914132</v>
       </c>
       <c r="C94">
-        <v>-0.1956976770060725</v>
+        <v>-0.1882122330261867</v>
       </c>
       <c r="D94">
-        <v>-0.2555283335116935</v>
+        <v>0.01563710150609945</v>
       </c>
       <c r="E94">
-        <v>-0.06064302384702047</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1453021035625475</v>
+      </c>
+      <c r="F94">
+        <v>-0.4968087753788332</v>
+      </c>
+      <c r="G94">
+        <v>-0.1525018212932518</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004710845528899805</v>
+        <v>-0.08418427167196814</v>
       </c>
       <c r="C95">
-        <v>-0.04698736501503172</v>
+        <v>-0.06563313605305039</v>
       </c>
       <c r="D95">
-        <v>-0.0882427913768502</v>
+        <v>0.008038322995705628</v>
       </c>
       <c r="E95">
-        <v>-0.1115096882688828</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06898347251625038</v>
+      </c>
+      <c r="F95">
+        <v>0.1620403961889767</v>
+      </c>
+      <c r="G95">
+        <v>-0.08248066542757228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.007750955008744803</v>
+        <v>-0.198243477987462</v>
       </c>
       <c r="C98">
-        <v>-0.1593265536394352</v>
+        <v>-0.044835343818587</v>
       </c>
       <c r="D98">
-        <v>-0.1202014419083403</v>
+        <v>0.01384181405441622</v>
       </c>
       <c r="E98">
-        <v>-0.05563692777986631</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06132030518445767</v>
+      </c>
+      <c r="F98">
+        <v>0.2500203415952131</v>
+      </c>
+      <c r="G98">
+        <v>-0.03985378970433139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00712876214397062</v>
+        <v>-0.01063641989410721</v>
       </c>
       <c r="C101">
-        <v>-0.0171171418633966</v>
+        <v>-0.01992962208282078</v>
       </c>
       <c r="D101">
-        <v>-0.01336591715200697</v>
+        <v>-0.007311738783172095</v>
       </c>
       <c r="E101">
-        <v>0.007569999938602081</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007265603843555208</v>
+      </c>
+      <c r="F101">
+        <v>-0.009987079954153016</v>
+      </c>
+      <c r="G101">
+        <v>0.04040521939930825</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01536292396956572</v>
+        <v>-0.1201494693618491</v>
       </c>
       <c r="C102">
-        <v>-0.09049576205990366</v>
+        <v>-0.08470854785195467</v>
       </c>
       <c r="D102">
-        <v>-0.1321246711957798</v>
+        <v>-0.001413251914095282</v>
       </c>
       <c r="E102">
-        <v>-0.01562616105470991</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02917230702244088</v>
+      </c>
+      <c r="F102">
+        <v>-0.03710697417596553</v>
+      </c>
+      <c r="G102">
+        <v>0.0007284893728840241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001691623109403593</v>
+        <v>-0.003722454061530683</v>
       </c>
       <c r="C103">
-        <v>-0.01310069740797566</v>
+        <v>-0.00472810705940505</v>
       </c>
       <c r="D103">
-        <v>-0.02601680539344253</v>
+        <v>-0.0003371732472227023</v>
       </c>
       <c r="E103">
-        <v>0.01381750165481873</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002415357703950797</v>
+      </c>
+      <c r="F103">
+        <v>-0.008495539574400779</v>
+      </c>
+      <c r="G103">
+        <v>0.01740620717018819</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9826151772993902</v>
+        <v>-0.02950881141593786</v>
       </c>
       <c r="C104">
-        <v>0.1261004483869003</v>
+        <v>0.03950336010026614</v>
       </c>
       <c r="D104">
-        <v>0.008254284286730515</v>
+        <v>-0.987140924686185</v>
       </c>
       <c r="E104">
-        <v>0.02624029985470126</v>
+        <v>0.04191443703194123</v>
+      </c>
+      <c r="F104">
+        <v>-0.04450771982047209</v>
+      </c>
+      <c r="G104">
+        <v>-0.009507319768552146</v>
       </c>
     </row>
   </sheetData>
